--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.022120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.022120.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4335,12 +4335,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7993,12 +7993,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9295,12 +9295,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
